--- a/Experimento_EEG.xlsx
+++ b/Experimento_EEG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/eloy_garciaperez_uclm_es/Documents/Tesis_EEG/proyecto_eeg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="8_{A2842039-3E20-44D2-847D-2DCBAB057A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5230694-4ACF-496F-8327-F4D8B88CBE8E}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="8_{A2842039-3E20-44D2-847D-2DCBAB057A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACDB1B4F-5A0A-4C1E-BBE0-E1E095595AD5}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE91E7FA-1BDB-47B2-9B27-7DE3ACDA43A0}"/>
+    <workbookView xWindow="-20400" yWindow="2655" windowWidth="20355" windowHeight="10770" xr2:uid="{DE91E7FA-1BDB-47B2-9B27-7DE3ACDA43A0}"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="446">
   <si>
     <t>CENTRO_ESCOLAR</t>
   </si>
@@ -859,12 +859,6 @@
     <t>TMF</t>
   </si>
   <si>
-    <t>JFL18122014</t>
-  </si>
-  <si>
-    <t>JFL</t>
-  </si>
-  <si>
     <t>IGM15042014</t>
   </si>
   <si>
@@ -881,12 +875,6 @@
   </si>
   <si>
     <t>DMD</t>
-  </si>
-  <si>
-    <t>MSC16102014</t>
-  </si>
-  <si>
-    <t>MSC</t>
   </si>
   <si>
     <t>Baile callejero</t>
@@ -1346,6 +1334,51 @@
   </si>
   <si>
     <t>IGF</t>
+  </si>
+  <si>
+    <t>CEIP_Sagrado_Corazon_Jesus</t>
+  </si>
+  <si>
+    <t>CEIP_Cristobal_Colon</t>
+  </si>
+  <si>
+    <t>CEIP_Simon_Abril</t>
+  </si>
+  <si>
+    <t>CEIP_Romero_Pena</t>
+  </si>
+  <si>
+    <t>Colegio_Melchor_Cano</t>
+  </si>
+  <si>
+    <t>CRA_Molinos_Jucar</t>
+  </si>
+  <si>
+    <t>CEIP_Remigio_Lain</t>
+  </si>
+  <si>
+    <t>CEIP_Martinez_Parras</t>
+  </si>
+  <si>
+    <t>1 ESO</t>
+  </si>
+  <si>
+    <t>REA</t>
+  </si>
+  <si>
+    <t>REA31032014</t>
+  </si>
+  <si>
+    <t>JLF</t>
+  </si>
+  <si>
+    <t>JLF18122014</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MS16102014</t>
   </si>
 </sst>
 </file>
@@ -1921,101 +1954,101 @@
   <dimension ref="A1:GZ109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="23" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="36" max="42" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="51" max="56" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="42" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="56" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="57" max="65" width="7" bestFit="1" customWidth="1"/>
     <col min="66" max="81" width="8" bestFit="1" customWidth="1"/>
-    <col min="82" max="90" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="91" max="105" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="106" max="114" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="115" max="135" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="136" max="144" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="145" max="171" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="172" max="174" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="175" max="177" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="82" max="90" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="105" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="106" max="114" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="115" max="135" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="136" max="144" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="145" max="171" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="172" max="174" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="175" max="177" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="181" max="181" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="I1" s="34" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
@@ -2561,9 +2594,9 @@
       <c r="GY1" s="4"/>
       <c r="GZ1" s="4"/>
     </row>
-    <row r="2" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>174</v>
+        <v>433</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>175</v>
@@ -3103,9 +3136,9 @@
       <c r="GY2" s="4"/>
       <c r="GZ2" s="4"/>
     </row>
-    <row r="3" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>174</v>
+        <v>433</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>180</v>
@@ -3645,9 +3678,9 @@
       <c r="GY3" s="4"/>
       <c r="GZ3" s="4"/>
     </row>
-    <row r="4" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>174</v>
+        <v>433</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>183</v>
@@ -4187,15 +4220,15 @@
       <c r="GY4" s="4"/>
       <c r="GZ4" s="4"/>
     </row>
-    <row r="5" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>174</v>
+        <v>433</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>185</v>
+        <v>441</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>186</v>
+        <v>440</v>
       </c>
       <c r="D5" s="6">
         <v>41729</v>
@@ -4729,9 +4762,9 @@
       <c r="GY5" s="4"/>
       <c r="GZ5" s="4"/>
     </row>
-    <row r="6" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>174</v>
+        <v>433</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>188</v>
@@ -5275,9 +5308,9 @@
       <c r="GY6" s="4"/>
       <c r="GZ6" s="4"/>
     </row>
-    <row r="7" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>174</v>
+        <v>433</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>192</v>
@@ -5817,9 +5850,9 @@
       <c r="GY7" s="4"/>
       <c r="GZ7" s="4"/>
     </row>
-    <row r="8" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>174</v>
+        <v>433</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>194</v>
@@ -6359,9 +6392,9 @@
       <c r="GY8" s="4"/>
       <c r="GZ8" s="4"/>
     </row>
-    <row r="9" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>174</v>
+        <v>433</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>196</v>
@@ -6901,9 +6934,9 @@
       <c r="GY9" s="4"/>
       <c r="GZ9" s="4"/>
     </row>
-    <row r="10" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>174</v>
+        <v>433</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>198</v>
@@ -7443,9 +7476,9 @@
       <c r="GY10" s="4"/>
       <c r="GZ10" s="4"/>
     </row>
-    <row r="11" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>174</v>
+        <v>433</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>200</v>
@@ -7985,9 +8018,9 @@
       <c r="GY11" s="4"/>
       <c r="GZ11" s="4"/>
     </row>
-    <row r="12" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>203</v>
@@ -8535,9 +8568,9 @@
       <c r="GY12" s="4"/>
       <c r="GZ12" s="4"/>
     </row>
-    <row r="13" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>209</v>
@@ -9085,9 +9118,9 @@
       <c r="GY13" s="4"/>
       <c r="GZ13" s="4"/>
     </row>
-    <row r="14" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>213</v>
@@ -9635,9 +9668,9 @@
       <c r="GY14" s="4"/>
       <c r="GZ14" s="4"/>
     </row>
-    <row r="15" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>216</v>
@@ -10181,9 +10214,9 @@
       <c r="GY15" s="4"/>
       <c r="GZ15" s="4"/>
     </row>
-    <row r="16" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>218</v>
@@ -10731,9 +10764,9 @@
       <c r="GY16" s="4"/>
       <c r="GZ16" s="4"/>
     </row>
-    <row r="17" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>221</v>
@@ -11281,9 +11314,9 @@
       <c r="GY17" s="4"/>
       <c r="GZ17" s="4"/>
     </row>
-    <row r="18" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>225</v>
@@ -11831,9 +11864,9 @@
       <c r="GY18" s="4"/>
       <c r="GZ18" s="4"/>
     </row>
-    <row r="19" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>228</v>
@@ -12381,9 +12414,9 @@
       <c r="GY19" s="8"/>
       <c r="GZ19" s="8"/>
     </row>
-    <row r="20" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>230</v>
@@ -12931,9 +12964,9 @@
       <c r="GY20" s="4"/>
       <c r="GZ20" s="4"/>
     </row>
-    <row r="21" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>232</v>
@@ -13481,9 +13514,9 @@
       <c r="GY21" s="4"/>
       <c r="GZ21" s="4"/>
     </row>
-    <row r="22" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>235</v>
@@ -14025,9 +14058,9 @@
       <c r="GY22" s="4"/>
       <c r="GZ22" s="4"/>
     </row>
-    <row r="23" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>237</v>
@@ -14049,7 +14082,7 @@
         <v>182</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J23" s="4">
         <v>1</v>
@@ -14571,9 +14604,9 @@
       <c r="GY23" s="4"/>
       <c r="GZ23" s="4"/>
     </row>
-    <row r="24" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>239</v>
@@ -15115,9 +15148,9 @@
       <c r="GY24" s="4"/>
       <c r="GZ24" s="4"/>
     </row>
-    <row r="25" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>241</v>
@@ -15659,9 +15692,9 @@
       <c r="GY25" s="4"/>
       <c r="GZ25" s="4"/>
     </row>
-    <row r="26" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>243</v>
@@ -16203,9 +16236,9 @@
       <c r="GY26" s="4"/>
       <c r="GZ26" s="4"/>
     </row>
-    <row r="27" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>245</v>
@@ -16749,9 +16782,9 @@
       <c r="GY27" s="4"/>
       <c r="GZ27" s="4"/>
     </row>
-    <row r="28" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>247</v>
@@ -17295,9 +17328,9 @@
       <c r="GY28" s="4"/>
       <c r="GZ28" s="4"/>
     </row>
-    <row r="29" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>249</v>
@@ -17843,9 +17876,9 @@
       <c r="GY29" s="4"/>
       <c r="GZ29" s="4"/>
     </row>
-    <row r="30" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>252</v>
@@ -18387,9 +18420,9 @@
       <c r="GY30" s="4"/>
       <c r="GZ30" s="4"/>
     </row>
-    <row r="31" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>255</v>
@@ -18411,7 +18444,7 @@
         <v>178</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
@@ -18933,9 +18966,9 @@
       <c r="GY31" s="4"/>
       <c r="GZ31" s="4"/>
     </row>
-    <row r="32" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>257</v>
@@ -19479,9 +19512,9 @@
       <c r="GY32" s="4"/>
       <c r="GZ32" s="4"/>
     </row>
-    <row r="33" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>260</v>
@@ -19503,7 +19536,7 @@
         <v>182</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J33" s="4">
         <v>1</v>
@@ -20025,9 +20058,9 @@
       <c r="GY33" s="4"/>
       <c r="GZ33" s="4"/>
     </row>
-    <row r="34" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>262</v>
@@ -20049,7 +20082,7 @@
         <v>178</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J34" s="4">
         <v>1</v>
@@ -20571,9 +20604,9 @@
       <c r="GY34" s="4"/>
       <c r="GZ34" s="4"/>
     </row>
-    <row r="35" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>264</v>
@@ -20595,7 +20628,7 @@
         <v>178</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J35" s="4">
         <v>1</v>
@@ -21117,9 +21150,9 @@
       <c r="GY35" s="4"/>
       <c r="GZ35" s="4"/>
     </row>
-    <row r="36" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>266</v>
@@ -21141,7 +21174,7 @@
         <v>178</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J36" s="4">
         <v>1</v>
@@ -21667,9 +21700,9 @@
       <c r="GY36" s="4"/>
       <c r="GZ36" s="4"/>
     </row>
-    <row r="37" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>270</v>
@@ -22211,15 +22244,15 @@
       <c r="GY37" s="4"/>
       <c r="GZ37" s="4"/>
     </row>
-    <row r="38" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>272</v>
+        <v>443</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>273</v>
+        <v>442</v>
       </c>
       <c r="D38" s="6">
         <v>41991</v>
@@ -22755,15 +22788,15 @@
       <c r="GY38" s="4"/>
       <c r="GZ38" s="4"/>
     </row>
-    <row r="39" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D39" s="6">
         <v>41744</v>
@@ -22779,7 +22812,7 @@
         <v>182</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J39" s="4">
         <v>5</v>
@@ -22851,13 +22884,13 @@
         <v>5</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AH39" s="4">
         <v>5</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AJ39" s="4">
         <v>5</v>
@@ -23305,15 +23338,15 @@
       <c r="GY39" s="4"/>
       <c r="GZ39" s="4"/>
     </row>
-    <row r="40" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D40" s="6">
         <v>41766</v>
@@ -23329,7 +23362,7 @@
         <v>178</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J40" s="4">
         <v>1</v>
@@ -23851,15 +23884,15 @@
       <c r="GY40" s="4"/>
       <c r="GZ40" s="4"/>
     </row>
-    <row r="41" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>280</v>
+        <v>445</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>281</v>
+        <v>444</v>
       </c>
       <c r="D41" s="6">
         <v>41928</v>
@@ -23945,7 +23978,7 @@
         <v>3</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AH41" s="4">
         <v>1</v>
@@ -24397,15 +24430,15 @@
       <c r="GY41" s="4"/>
       <c r="GZ41" s="4"/>
     </row>
-    <row r="42" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D42" s="6">
         <v>41688</v>
@@ -24421,7 +24454,7 @@
         <v>182</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J42" s="4">
         <v>1</v>
@@ -24943,15 +24976,15 @@
       <c r="GY42" s="4"/>
       <c r="GZ42" s="4"/>
     </row>
-    <row r="43" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D43" s="6">
         <v>41628</v>
@@ -25487,15 +25520,15 @@
       <c r="GY43" s="4"/>
       <c r="GZ43" s="4"/>
     </row>
-    <row r="44" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D44" s="6">
         <v>41795</v>
@@ -25511,7 +25544,7 @@
         <v>182</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J44" s="4">
         <v>2</v>
@@ -26033,15 +26066,15 @@
       <c r="GY44" s="4"/>
       <c r="GZ44" s="4"/>
     </row>
-    <row r="45" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>289</v>
+        <v>438</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D45" s="6">
         <v>41331</v>
@@ -26125,7 +26158,7 @@
         <v>3</v>
       </c>
       <c r="AG45" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AH45" s="4">
         <v>1</v>
@@ -26577,15 +26610,15 @@
       <c r="GY45" s="4"/>
       <c r="GZ45" s="4"/>
     </row>
-    <row r="46" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="C46" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D46" s="6">
         <v>41616</v>
@@ -26669,7 +26702,7 @@
         <v>3</v>
       </c>
       <c r="AG46" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AH46" s="4">
         <v>1</v>
@@ -27121,15 +27154,15 @@
       <c r="GY46" s="4"/>
       <c r="GZ46" s="4"/>
     </row>
-    <row r="47" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>289</v>
+        <v>438</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D47" s="6">
         <v>41489</v>
@@ -27143,7 +27176,7 @@
         <v>178</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J47" s="4">
         <v>1</v>
@@ -27215,13 +27248,13 @@
         <v>3</v>
       </c>
       <c r="AG47" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AH47" s="4">
         <v>3</v>
       </c>
       <c r="AI47" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AJ47" s="4">
         <v>4</v>
@@ -27669,15 +27702,15 @@
       <c r="GY47" s="4"/>
       <c r="GZ47" s="4"/>
     </row>
-    <row r="48" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>289</v>
+        <v>438</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D48" s="6">
         <v>41637</v>
@@ -27761,7 +27794,7 @@
         <v>3</v>
       </c>
       <c r="AG48" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AH48" s="4">
         <v>1</v>
@@ -28213,15 +28246,15 @@
       <c r="GY48" s="4"/>
       <c r="GZ48" s="4"/>
     </row>
-    <row r="49" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>289</v>
+        <v>438</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D49" s="6">
         <v>41923</v>
@@ -28307,7 +28340,7 @@
         <v>3</v>
       </c>
       <c r="AG49" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AH49" s="4">
         <v>1</v>
@@ -28759,15 +28792,15 @@
       <c r="GY49" s="4"/>
       <c r="GZ49" s="4"/>
     </row>
-    <row r="50" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>289</v>
+        <v>438</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D50" s="6">
         <v>41669</v>
@@ -28851,7 +28884,7 @@
         <v>3</v>
       </c>
       <c r="AG50" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AH50" s="4">
         <v>1</v>
@@ -29303,15 +29336,15 @@
       <c r="GY50" s="4"/>
       <c r="GZ50" s="4"/>
     </row>
-    <row r="51" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D51" s="6">
         <v>41689</v>
@@ -29327,7 +29360,7 @@
         <v>178</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J51" s="4">
         <v>3</v>
@@ -29849,15 +29882,15 @@
       <c r="GY51" s="4"/>
       <c r="GZ51" s="4"/>
     </row>
-    <row r="52" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="D52" s="6">
         <v>41767</v>
@@ -30393,15 +30426,15 @@
       <c r="GY52" s="4"/>
       <c r="GZ52" s="4"/>
     </row>
-    <row r="53" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D53" s="6">
         <v>41726</v>
@@ -30417,7 +30450,7 @@
         <v>178</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J53" s="4">
         <v>2</v>
@@ -30939,15 +30972,15 @@
       <c r="GY53" s="4"/>
       <c r="GZ53" s="4"/>
     </row>
-    <row r="54" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D54" s="6">
         <v>41727</v>
@@ -31033,7 +31066,7 @@
         <v>2</v>
       </c>
       <c r="AG54" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AH54" s="4">
         <v>1</v>
@@ -31485,15 +31518,15 @@
       <c r="GY54" s="4"/>
       <c r="GZ54" s="4"/>
     </row>
-    <row r="55" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D55" s="6">
         <v>41702</v>
@@ -31579,13 +31612,13 @@
         <v>4</v>
       </c>
       <c r="AG55" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AH55" s="4">
         <v>3</v>
       </c>
       <c r="AI55" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AJ55" s="4">
         <v>4</v>
@@ -32033,15 +32066,15 @@
       <c r="GY55" s="4"/>
       <c r="GZ55" s="4"/>
     </row>
-    <row r="56" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D56" s="6">
         <v>41936</v>
@@ -32577,15 +32610,15 @@
       <c r="GY56" s="4"/>
       <c r="GZ56" s="4"/>
     </row>
-    <row r="57" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D57" s="6">
         <v>41484</v>
@@ -33121,15 +33154,15 @@
       <c r="GY57" s="4"/>
       <c r="GZ57" s="4"/>
     </row>
-    <row r="58" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D58" s="6">
         <v>41498</v>
@@ -33665,15 +33698,15 @@
       <c r="GY58" s="4"/>
       <c r="GZ58" s="4"/>
     </row>
-    <row r="59" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D59" s="6">
         <v>41283</v>
@@ -33689,7 +33722,7 @@
         <v>182</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J59" s="4">
         <v>2</v>
@@ -34211,15 +34244,15 @@
       <c r="GY59" s="4"/>
       <c r="GZ59" s="4"/>
     </row>
-    <row r="60" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D60" s="6">
         <v>41337</v>
@@ -34755,15 +34788,15 @@
       <c r="GY60" s="4"/>
       <c r="GZ60" s="4"/>
     </row>
-    <row r="61" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D61" s="6">
         <v>41440</v>
@@ -35301,15 +35334,15 @@
       <c r="GY61" s="4"/>
       <c r="GZ61" s="4"/>
     </row>
-    <row r="62" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D62" s="6">
         <v>41400</v>
@@ -35397,7 +35430,7 @@
         <v>4</v>
       </c>
       <c r="AG62" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AH62" s="4">
         <v>1</v>
@@ -35849,15 +35882,15 @@
       <c r="GY62" s="4"/>
       <c r="GZ62" s="4"/>
     </row>
-    <row r="63" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D63" s="6">
         <v>41341</v>
@@ -36393,15 +36426,15 @@
       <c r="GY63" s="4"/>
       <c r="GZ63" s="4"/>
     </row>
-    <row r="64" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>335</v>
+        <v>436</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D64" s="6">
         <v>41408</v>
@@ -36485,13 +36518,13 @@
         <v>3</v>
       </c>
       <c r="AG64" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AH64" s="4">
         <v>4</v>
       </c>
       <c r="AI64" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AJ64" s="4">
         <v>4</v>
@@ -36939,15 +36972,15 @@
       <c r="GY64" s="4"/>
       <c r="GZ64" s="4"/>
     </row>
-    <row r="65" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="C65" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D65" s="6">
         <v>41913</v>
@@ -37481,15 +37514,15 @@
       <c r="GY65" s="4"/>
       <c r="GZ65" s="4"/>
     </row>
-    <row r="66" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>335</v>
+        <v>436</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D66" s="6">
         <v>41961</v>
@@ -38023,15 +38056,15 @@
       <c r="GY66" s="4"/>
       <c r="GZ66" s="4"/>
     </row>
-    <row r="67" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>342</v>
+        <v>436</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D67" s="6">
         <v>41591</v>
@@ -38565,15 +38598,15 @@
       <c r="GY67" s="4"/>
       <c r="GZ67" s="4"/>
     </row>
-    <row r="68" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>335</v>
+        <v>436</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D68" s="6">
         <v>41500</v>
@@ -39107,15 +39140,15 @@
       <c r="GY68" s="4"/>
       <c r="GZ68" s="4"/>
     </row>
-    <row r="69" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>335</v>
+        <v>436</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D69" s="6">
         <v>41439</v>
@@ -39649,15 +39682,15 @@
       <c r="GY69" s="4"/>
       <c r="GZ69" s="4"/>
     </row>
-    <row r="70" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>335</v>
+        <v>436</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D70" s="4">
         <v>2016</v>
@@ -39873,15 +39906,15 @@
       <c r="GY70" s="4"/>
       <c r="GZ70" s="4"/>
     </row>
-    <row r="71" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D71" s="6">
         <v>41361</v>
@@ -40411,15 +40444,15 @@
       <c r="GY71" s="14"/>
       <c r="GZ71" s="14"/>
     </row>
-    <row r="72" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="D72" s="6">
         <v>41737</v>
@@ -40951,15 +40984,15 @@
       <c r="GY72" s="14"/>
       <c r="GZ72" s="14"/>
     </row>
-    <row r="73" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D73" s="6">
         <v>41635</v>
@@ -41489,15 +41522,15 @@
       <c r="GY73" s="14"/>
       <c r="GZ73" s="14"/>
     </row>
-    <row r="74" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D74" s="6">
         <v>41668</v>
@@ -41583,7 +41616,7 @@
         <v>3</v>
       </c>
       <c r="AG74" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AH74" s="4"/>
       <c r="AI74" s="4"/>
@@ -42033,15 +42066,15 @@
       <c r="GY74" s="14"/>
       <c r="GZ74" s="14"/>
     </row>
-    <row r="75" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D75" s="6">
         <v>41890</v>
@@ -42567,20 +42600,22 @@
       <c r="GY75" s="14"/>
       <c r="GZ75" s="14"/>
     </row>
-    <row r="76" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D76" s="18">
         <v>41430</v>
       </c>
-      <c r="E76" s="4"/>
+      <c r="E76" s="4">
+        <v>6</v>
+      </c>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="4" t="s">
@@ -42789,15 +42824,15 @@
       <c r="GY76" s="14"/>
       <c r="GZ76" s="14"/>
     </row>
-    <row r="77" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D77" s="6">
         <v>41086</v>
@@ -43327,15 +43362,15 @@
       <c r="GY77" s="14"/>
       <c r="GZ77" s="14"/>
     </row>
-    <row r="78" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="D78" s="6">
         <v>40985</v>
@@ -43419,7 +43454,7 @@
         <v>2</v>
       </c>
       <c r="AG78" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AH78" s="4"/>
       <c r="AI78" s="14"/>
@@ -43867,15 +43902,15 @@
       <c r="GY78" s="14"/>
       <c r="GZ78" s="14"/>
     </row>
-    <row r="79" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D79" s="6">
         <v>41704</v>
@@ -44403,15 +44438,15 @@
       <c r="GY79" s="14"/>
       <c r="GZ79" s="14"/>
     </row>
-    <row r="80" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D80" s="6">
         <v>41640</v>
@@ -44425,7 +44460,7 @@
         <v>178</v>
       </c>
       <c r="I80" s="35" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J80" s="4">
         <v>3</v>
@@ -44497,7 +44532,7 @@
         <v>3</v>
       </c>
       <c r="AG80" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AH80" s="4"/>
       <c r="AI80" s="14"/>
@@ -44943,15 +44978,15 @@
       <c r="GY80" s="14"/>
       <c r="GZ80" s="14"/>
     </row>
-    <row r="81" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D81" s="6">
         <v>41926</v>
@@ -45477,15 +45512,15 @@
       <c r="GY81" s="14"/>
       <c r="GZ81" s="14"/>
     </row>
-    <row r="82" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D82" s="6">
         <v>41319</v>
@@ -45569,7 +45604,7 @@
         <v>5</v>
       </c>
       <c r="AG82" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AH82" s="4"/>
       <c r="AI82" s="4"/>
@@ -46019,15 +46054,15 @@
       <c r="GY82" s="14"/>
       <c r="GZ82" s="14"/>
     </row>
-    <row r="83" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D83" s="6">
         <v>41394</v>
@@ -46113,13 +46148,13 @@
         <v>5</v>
       </c>
       <c r="AG83" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AH83" s="4">
         <v>5</v>
       </c>
       <c r="AI83" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AJ83" s="4">
         <v>5</v>
@@ -46567,15 +46602,15 @@
       <c r="GY83" s="14"/>
       <c r="GZ83" s="14"/>
     </row>
-    <row r="84" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D84" s="4">
         <v>2015</v>
@@ -46791,12 +46826,15 @@
       <c r="GY84" s="4"/>
       <c r="GZ84" s="4"/>
     </row>
-    <row r="85" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="E85" s="4">
         <v>6</v>
@@ -46808,15 +46846,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E86" s="4">
-        <v>1</v>
+        <v>404</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>178</v>
@@ -46825,12 +46866,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="E87" s="4">
         <v>3</v>
@@ -46842,15 +46886,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E88" s="4">
-        <v>1</v>
+      <c r="C88" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>178</v>
@@ -46859,12 +46906,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="E89" s="4">
         <v>5</v>
@@ -46876,12 +46926,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="E90" s="4">
         <v>3</v>
@@ -46893,12 +46946,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="E91" s="4">
         <v>5</v>
@@ -46910,12 +46966,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="E92" s="4">
         <v>4</v>
@@ -46927,12 +46986,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>411</v>
       </c>
       <c r="E93" s="4">
         <v>6</v>
@@ -46944,12 +47006,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="E94" s="4">
         <v>5</v>
@@ -46961,15 +47026,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E95" s="4">
-        <v>1</v>
+        <v>413</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>178</v>
@@ -46978,12 +47046,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="1:208" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="E96" s="4">
         <v>4</v>
@@ -46995,12 +47066,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="E97" s="4">
         <v>6</v>
@@ -47012,12 +47086,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="E98" s="4">
         <v>4</v>
@@ -47029,12 +47106,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="E99" s="4">
         <v>5</v>
@@ -47046,15 +47126,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E100" s="4">
-        <v>1</v>
+        <v>418</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>178</v>
@@ -47063,12 +47146,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>419</v>
       </c>
       <c r="E101" s="4">
         <v>5</v>
@@ -47080,15 +47166,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E102" s="4">
-        <v>1</v>
+        <v>420</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>182</v>
@@ -47097,12 +47186,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="E103" s="4">
         <v>5</v>
@@ -47114,12 +47206,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="E104" s="4">
         <v>5</v>
@@ -47131,12 +47226,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="E105" s="4">
         <v>5</v>
@@ -47148,12 +47246,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="E106" s="4">
         <v>6</v>
@@ -47165,15 +47266,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="E107" s="4">
-        <v>1</v>
+        <v>425</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>178</v>
@@ -47182,12 +47286,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="E108" s="4">
         <v>4</v>
@@ -47199,15 +47306,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="E109" s="4">
-        <v>1</v>
+        <v>427</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>178</v>
@@ -47230,96 +47340,96 @@
       <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="23" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="36" max="42" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="51" max="56" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="42" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="56" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="57" max="65" width="7" bestFit="1" customWidth="1"/>
     <col min="66" max="81" width="8" bestFit="1" customWidth="1"/>
-    <col min="82" max="90" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="91" max="105" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="106" max="114" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="115" max="135" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="136" max="144" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="145" max="171" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="172" max="174" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="175" max="177" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="82" max="90" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="105" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="106" max="114" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="115" max="135" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="136" max="144" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="145" max="171" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="172" max="174" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="175" max="177" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="181" max="181" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
@@ -47864,7 +47974,7 @@
       <c r="GX1" s="4"/>
       <c r="GY1" s="4"/>
     </row>
-    <row r="2" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>174</v>
       </c>
@@ -48405,7 +48515,7 @@
       <c r="GX2" s="4"/>
       <c r="GY2" s="4"/>
     </row>
-    <row r="3" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>174</v>
       </c>
@@ -48946,7 +49056,7 @@
       <c r="GX3" s="4"/>
       <c r="GY3" s="4"/>
     </row>
-    <row r="4" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>174</v>
       </c>
@@ -49487,7 +49597,7 @@
       <c r="GX4" s="4"/>
       <c r="GY4" s="4"/>
     </row>
-    <row r="5" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>174</v>
       </c>
@@ -50028,7 +50138,7 @@
       <c r="GX5" s="4"/>
       <c r="GY5" s="4"/>
     </row>
-    <row r="6" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>174</v>
       </c>
@@ -50573,7 +50683,7 @@
       <c r="GX6" s="4"/>
       <c r="GY6" s="4"/>
     </row>
-    <row r="7" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>174</v>
       </c>
@@ -51114,7 +51224,7 @@
       <c r="GX7" s="4"/>
       <c r="GY7" s="4"/>
     </row>
-    <row r="8" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -51655,7 +51765,7 @@
       <c r="GX8" s="4"/>
       <c r="GY8" s="4"/>
     </row>
-    <row r="9" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>174</v>
       </c>
@@ -52196,7 +52306,7 @@
       <c r="GX9" s="4"/>
       <c r="GY9" s="4"/>
     </row>
-    <row r="10" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>174</v>
       </c>
@@ -52737,7 +52847,7 @@
       <c r="GX10" s="4"/>
       <c r="GY10" s="4"/>
     </row>
-    <row r="11" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>174</v>
       </c>
@@ -53278,7 +53388,7 @@
       <c r="GX11" s="4"/>
       <c r="GY11" s="4"/>
     </row>
-    <row r="12" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>202</v>
       </c>
@@ -53827,7 +53937,7 @@
       <c r="GX12" s="4"/>
       <c r="GY12" s="4"/>
     </row>
-    <row r="13" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>202</v>
       </c>
@@ -54376,7 +54486,7 @@
       <c r="GX13" s="4"/>
       <c r="GY13" s="4"/>
     </row>
-    <row r="14" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>202</v>
       </c>
@@ -54925,7 +55035,7 @@
       <c r="GX14" s="4"/>
       <c r="GY14" s="4"/>
     </row>
-    <row r="15" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>202</v>
       </c>
@@ -55470,7 +55580,7 @@
       <c r="GX15" s="4"/>
       <c r="GY15" s="4"/>
     </row>
-    <row r="16" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>202</v>
       </c>
@@ -56019,7 +56129,7 @@
       <c r="GX16" s="4"/>
       <c r="GY16" s="4"/>
     </row>
-    <row r="17" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>202</v>
       </c>
@@ -56568,7 +56678,7 @@
       <c r="GX17" s="4"/>
       <c r="GY17" s="4"/>
     </row>
-    <row r="18" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>202</v>
       </c>
@@ -57117,7 +57227,7 @@
       <c r="GX18" s="4"/>
       <c r="GY18" s="4"/>
     </row>
-    <row r="19" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>202</v>
       </c>
@@ -57666,7 +57776,7 @@
       <c r="GX19" s="8"/>
       <c r="GY19" s="8"/>
     </row>
-    <row r="20" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>202</v>
       </c>
@@ -58215,7 +58325,7 @@
       <c r="GX20" s="4"/>
       <c r="GY20" s="4"/>
     </row>
-    <row r="21" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>202</v>
       </c>
@@ -58764,7 +58874,7 @@
       <c r="GX21" s="4"/>
       <c r="GY21" s="4"/>
     </row>
-    <row r="22" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>234</v>
       </c>
@@ -58788,7 +58898,7 @@
         <v>178</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
@@ -59309,12 +59419,12 @@
       <c r="GX22" s="4"/>
       <c r="GY22" s="4"/>
     </row>
-    <row r="23" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>236</v>
@@ -59852,15 +59962,15 @@
       <c r="GX23" s="4"/>
       <c r="GY23" s="4"/>
     </row>
-    <row r="24" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D24" s="6">
         <v>41766</v>
@@ -59876,7 +59986,7 @@
         <v>178</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
@@ -60397,15 +60507,15 @@
       <c r="GX24" s="4"/>
       <c r="GY24" s="4"/>
     </row>
-    <row r="25" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D25" s="6">
         <v>41331</v>
@@ -60489,7 +60599,7 @@
         <v>3</v>
       </c>
       <c r="AG25" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AH25" s="4">
         <v>1</v>
@@ -60940,15 +61050,15 @@
       <c r="GX25" s="4"/>
       <c r="GY25" s="4"/>
     </row>
-    <row r="26" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D26" s="6">
         <v>41616</v>
@@ -61032,7 +61142,7 @@
         <v>3</v>
       </c>
       <c r="AG26" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AH26" s="4">
         <v>1</v>
@@ -61483,15 +61593,15 @@
       <c r="GX26" s="4"/>
       <c r="GY26" s="4"/>
     </row>
-    <row r="27" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D27" s="6">
         <v>41489</v>
@@ -61505,7 +61615,7 @@
         <v>178</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J27" s="4">
         <v>1</v>
@@ -61577,13 +61687,13 @@
         <v>3</v>
       </c>
       <c r="AG27" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AH27" s="4">
         <v>3</v>
       </c>
       <c r="AI27" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AJ27" s="4">
         <v>4</v>
@@ -62030,15 +62140,15 @@
       <c r="GX27" s="4"/>
       <c r="GY27" s="4"/>
     </row>
-    <row r="28" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D28" s="6">
         <v>41637</v>
@@ -62122,7 +62232,7 @@
         <v>3</v>
       </c>
       <c r="AG28" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AH28" s="4">
         <v>1</v>
@@ -62573,15 +62683,15 @@
       <c r="GX28" s="4"/>
       <c r="GY28" s="4"/>
     </row>
-    <row r="29" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D29" s="6">
         <v>41923</v>
@@ -62667,7 +62777,7 @@
         <v>3</v>
       </c>
       <c r="AG29" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AH29" s="4">
         <v>1</v>
@@ -63118,15 +63228,15 @@
       <c r="GX29" s="4"/>
       <c r="GY29" s="4"/>
     </row>
-    <row r="30" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D30" s="6">
         <v>41669</v>
@@ -63210,7 +63320,7 @@
         <v>3</v>
       </c>
       <c r="AG30" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AH30" s="4">
         <v>1</v>
@@ -63661,15 +63771,15 @@
       <c r="GX30" s="4"/>
       <c r="GY30" s="4"/>
     </row>
-    <row r="31" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D31" s="6">
         <v>41689</v>
@@ -63685,7 +63795,7 @@
         <v>178</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J31" s="4">
         <v>3</v>
@@ -64206,15 +64316,15 @@
       <c r="GX31" s="4"/>
       <c r="GY31" s="4"/>
     </row>
-    <row r="32" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D32" s="6">
         <v>41726</v>
@@ -64230,7 +64340,7 @@
         <v>178</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J32" s="4">
         <v>2</v>
@@ -64751,15 +64861,15 @@
       <c r="GX32" s="4"/>
       <c r="GY32" s="4"/>
     </row>
-    <row r="33" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D33" s="6">
         <v>41727</v>
@@ -64845,7 +64955,7 @@
         <v>2</v>
       </c>
       <c r="AG33" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AH33" s="4">
         <v>1</v>
@@ -65296,15 +65406,15 @@
       <c r="GX33" s="4"/>
       <c r="GY33" s="4"/>
     </row>
-    <row r="34" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D34" s="6">
         <v>41936</v>
@@ -65839,15 +65949,15 @@
       <c r="GX34" s="4"/>
       <c r="GY34" s="4"/>
     </row>
-    <row r="35" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D35" s="6">
         <v>41484</v>
@@ -66382,15 +66492,15 @@
       <c r="GX35" s="4"/>
       <c r="GY35" s="4"/>
     </row>
-    <row r="36" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D36" s="6">
         <v>41498</v>
@@ -66925,15 +67035,15 @@
       <c r="GX36" s="4"/>
       <c r="GY36" s="4"/>
     </row>
-    <row r="37" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D37" s="6">
         <v>41283</v>
@@ -66949,7 +67059,7 @@
         <v>182</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J37" s="4">
         <v>2</v>
@@ -67470,15 +67580,15 @@
       <c r="GX37" s="4"/>
       <c r="GY37" s="4"/>
     </row>
-    <row r="38" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D38" s="6">
         <v>41337</v>
@@ -68013,15 +68123,15 @@
       <c r="GX38" s="4"/>
       <c r="GY38" s="4"/>
     </row>
-    <row r="39" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D39" s="6">
         <v>41440</v>
@@ -68558,15 +68668,15 @@
       <c r="GX39" s="4"/>
       <c r="GY39" s="4"/>
     </row>
-    <row r="40" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D40" s="6">
         <v>41400</v>
@@ -68654,7 +68764,7 @@
         <v>4</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AH40" s="4">
         <v>1</v>
@@ -69105,15 +69215,15 @@
       <c r="GX40" s="4"/>
       <c r="GY40" s="4"/>
     </row>
-    <row r="41" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D41" s="6">
         <v>41341</v>
@@ -69648,15 +69758,15 @@
       <c r="GX41" s="4"/>
       <c r="GY41" s="4"/>
     </row>
-    <row r="42" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D42" s="6">
         <v>41408</v>
@@ -69740,13 +69850,13 @@
         <v>3</v>
       </c>
       <c r="AG42" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AH42" s="4">
         <v>4</v>
       </c>
       <c r="AI42" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AJ42" s="4">
         <v>4</v>
@@ -70193,15 +70303,15 @@
       <c r="GX42" s="4"/>
       <c r="GY42" s="4"/>
     </row>
-    <row r="43" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="C43" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D43" s="6">
         <v>41913</v>
@@ -70734,15 +70844,15 @@
       <c r="GX43" s="4"/>
       <c r="GY43" s="4"/>
     </row>
-    <row r="44" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D44" s="6">
         <v>41961</v>
@@ -71275,15 +71385,15 @@
       <c r="GX44" s="4"/>
       <c r="GY44" s="4"/>
     </row>
-    <row r="45" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D45" s="6">
         <v>41591</v>
@@ -71816,15 +71926,15 @@
       <c r="GX45" s="4"/>
       <c r="GY45" s="4"/>
     </row>
-    <row r="46" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D46" s="6">
         <v>41500</v>
@@ -72357,15 +72467,15 @@
       <c r="GX46" s="4"/>
       <c r="GY46" s="4"/>
     </row>
-    <row r="47" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D47" s="6">
         <v>41439</v>
@@ -72898,15 +73008,15 @@
       <c r="GX47" s="4"/>
       <c r="GY47" s="4"/>
     </row>
-    <row r="48" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D48" s="21">
         <v>41361</v>
@@ -73435,15 +73545,15 @@
       <c r="GX48" s="4"/>
       <c r="GY48" s="4"/>
     </row>
-    <row r="49" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="20" t="s">
         <v>351</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>355</v>
       </c>
       <c r="D49" s="21">
         <v>41737</v>
@@ -73974,15 +74084,15 @@
       <c r="GX49" s="4"/>
       <c r="GY49" s="4"/>
     </row>
-    <row r="50" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D50" s="21">
         <v>41635</v>
@@ -74511,15 +74621,15 @@
       <c r="GX50" s="4"/>
       <c r="GY50" s="4"/>
     </row>
-    <row r="51" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D51" s="25">
         <v>41668</v>
@@ -74734,15 +74844,15 @@
       <c r="GX51" s="27"/>
       <c r="GY51" s="27"/>
     </row>
-    <row r="52" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D52" s="21">
         <v>41890</v>
@@ -75275,15 +75385,15 @@
       <c r="GX52" s="4"/>
       <c r="GY52" s="4"/>
     </row>
-    <row r="53" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D53" s="18">
         <v>41430</v>
@@ -75412,7 +75522,7 @@
         <v>5</v>
       </c>
       <c r="AX53" s="17" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AY53" s="17">
         <v>5</v>
@@ -75814,15 +75924,15 @@
       <c r="GX53" s="5"/>
       <c r="GY53" s="5"/>
     </row>
-    <row r="54" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D54" s="21">
         <v>41086</v>
@@ -75906,7 +76016,7 @@
         <v>3</v>
       </c>
       <c r="AG54" s="22" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AH54" s="22"/>
       <c r="AI54" s="22"/>
@@ -76355,15 +76465,15 @@
       <c r="GX54" s="4"/>
       <c r="GY54" s="4"/>
     </row>
-    <row r="55" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>365</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>369</v>
       </c>
       <c r="D55" s="25">
         <v>40985</v>
@@ -76576,15 +76686,15 @@
       <c r="GX55" s="27"/>
       <c r="GY55" s="27"/>
     </row>
-    <row r="56" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D56" s="21">
         <v>41704</v>
@@ -76668,7 +76778,7 @@
         <v>2</v>
       </c>
       <c r="AG56" s="22" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AH56" s="22"/>
       <c r="AI56" s="22"/>
@@ -77113,15 +77223,15 @@
       <c r="GX56" s="4"/>
       <c r="GY56" s="4"/>
     </row>
-    <row r="57" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D57" s="21">
         <v>41640</v>
@@ -77135,7 +77245,7 @@
         <v>178</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J57" s="22">
         <v>5</v>
@@ -77207,13 +77317,13 @@
         <v>2</v>
       </c>
       <c r="AG57" s="22" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AH57" s="22">
         <v>2</v>
       </c>
       <c r="AI57" s="22" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AJ57" s="22">
         <v>4</v>
@@ -77658,15 +77768,15 @@
       <c r="GX57" s="4"/>
       <c r="GY57" s="4"/>
     </row>
-    <row r="58" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D58" s="21">
         <v>41281</v>
@@ -77750,7 +77860,7 @@
         <v>13</v>
       </c>
       <c r="AG58" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AH58" s="22"/>
       <c r="AI58" s="22"/>
@@ -78199,15 +78309,15 @@
       <c r="GX58" s="4"/>
       <c r="GY58" s="4"/>
     </row>
-    <row r="59" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D59" s="21">
         <v>41394</v>
@@ -78742,15 +78852,15 @@
       <c r="GX59" s="4"/>
       <c r="GY59" s="4"/>
     </row>
-    <row r="60" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D60" s="4">
         <v>2015</v>
@@ -78964,76 +79074,76 @@
       <c r="GX60" s="4"/>
       <c r="GY60" s="4"/>
     </row>
-    <row r="61" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:207" x14ac:dyDescent="0.25">
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:207" x14ac:dyDescent="0.25">
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:207" x14ac:dyDescent="0.25">
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:207" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:207" x14ac:dyDescent="0.25">
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I71" s="14"/>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I72" s="14"/>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I73" s="14"/>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I74" s="14"/>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I75" s="14"/>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I76" s="14"/>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I77" s="14"/>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I78" s="14"/>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I79" s="14"/>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I80" s="14"/>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I81" s="14"/>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I82" s="14"/>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I83" s="14"/>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I84" s="4"/>
     </row>
   </sheetData>

--- a/Experimento_EEG.xlsx
+++ b/Experimento_EEG.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="319" documentId="8_{A2842039-3E20-44D2-847D-2DCBAB057A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACDB1B4F-5A0A-4C1E-BBE0-E1E095595AD5}"/>
   <bookViews>
-    <workbookView xWindow="-20400" yWindow="2655" windowWidth="20355" windowHeight="10770" xr2:uid="{DE91E7FA-1BDB-47B2-9B27-7DE3ACDA43A0}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="20355" windowHeight="10770" xr2:uid="{DE91E7FA-1BDB-47B2-9B27-7DE3ACDA43A0}"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="2" r:id="rId1"/>
@@ -1954,9 +1954,9 @@
   <dimension ref="A1:GZ109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Experimento_EEG.xlsx
+++ b/Experimento_EEG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/eloy_garciaperez_uclm_es/Documents/Tesis_EEG/proyecto_eeg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="8_{A2842039-3E20-44D2-847D-2DCBAB057A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACDB1B4F-5A0A-4C1E-BBE0-E1E095595AD5}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="8_{A2842039-3E20-44D2-847D-2DCBAB057A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11A0F6CA-D756-44A8-BCB6-CD9D626CCFCB}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="20355" windowHeight="10770" xr2:uid="{DE91E7FA-1BDB-47B2-9B27-7DE3ACDA43A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE91E7FA-1BDB-47B2-9B27-7DE3ACDA43A0}"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="2" r:id="rId1"/>
@@ -1951,12 +1951,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AF94D7-EF12-497C-9205-C3D7A8C7E134}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:GZ109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
+      <selection pane="bottomLeft" activeCell="I109" sqref="I27:I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,7 +2595,7 @@
       <c r="GY1" s="4"/>
       <c r="GZ1" s="4"/>
     </row>
-    <row r="2" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>433</v>
       </c>
@@ -3136,7 +3137,7 @@
       <c r="GY2" s="4"/>
       <c r="GZ2" s="4"/>
     </row>
-    <row r="3" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>433</v>
       </c>
@@ -3678,7 +3679,7 @@
       <c r="GY3" s="4"/>
       <c r="GZ3" s="4"/>
     </row>
-    <row r="4" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>433</v>
       </c>
@@ -4220,7 +4221,7 @@
       <c r="GY4" s="4"/>
       <c r="GZ4" s="4"/>
     </row>
-    <row r="5" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>433</v>
       </c>
@@ -4762,7 +4763,7 @@
       <c r="GY5" s="4"/>
       <c r="GZ5" s="4"/>
     </row>
-    <row r="6" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>433</v>
       </c>
@@ -5308,7 +5309,7 @@
       <c r="GY6" s="4"/>
       <c r="GZ6" s="4"/>
     </row>
-    <row r="7" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>433</v>
       </c>
@@ -5850,7 +5851,7 @@
       <c r="GY7" s="4"/>
       <c r="GZ7" s="4"/>
     </row>
-    <row r="8" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>433</v>
       </c>
@@ -6392,7 +6393,7 @@
       <c r="GY8" s="4"/>
       <c r="GZ8" s="4"/>
     </row>
-    <row r="9" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>433</v>
       </c>
@@ -6934,7 +6935,7 @@
       <c r="GY9" s="4"/>
       <c r="GZ9" s="4"/>
     </row>
-    <row r="10" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>433</v>
       </c>
@@ -7476,7 +7477,7 @@
       <c r="GY10" s="4"/>
       <c r="GZ10" s="4"/>
     </row>
-    <row r="11" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>433</v>
       </c>
@@ -8018,7 +8019,7 @@
       <c r="GY11" s="4"/>
       <c r="GZ11" s="4"/>
     </row>
-    <row r="12" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>434</v>
       </c>
@@ -8568,7 +8569,7 @@
       <c r="GY12" s="4"/>
       <c r="GZ12" s="4"/>
     </row>
-    <row r="13" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>434</v>
       </c>
@@ -9118,7 +9119,7 @@
       <c r="GY13" s="4"/>
       <c r="GZ13" s="4"/>
     </row>
-    <row r="14" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>434</v>
       </c>
@@ -9668,7 +9669,7 @@
       <c r="GY14" s="4"/>
       <c r="GZ14" s="4"/>
     </row>
-    <row r="15" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>434</v>
       </c>
@@ -10214,7 +10215,7 @@
       <c r="GY15" s="4"/>
       <c r="GZ15" s="4"/>
     </row>
-    <row r="16" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>434</v>
       </c>
@@ -10764,7 +10765,7 @@
       <c r="GY16" s="4"/>
       <c r="GZ16" s="4"/>
     </row>
-    <row r="17" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>434</v>
       </c>
@@ -11314,7 +11315,7 @@
       <c r="GY17" s="4"/>
       <c r="GZ17" s="4"/>
     </row>
-    <row r="18" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>434</v>
       </c>
@@ -11864,7 +11865,7 @@
       <c r="GY18" s="4"/>
       <c r="GZ18" s="4"/>
     </row>
-    <row r="19" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>434</v>
       </c>
@@ -12414,7 +12415,7 @@
       <c r="GY19" s="8"/>
       <c r="GZ19" s="8"/>
     </row>
-    <row r="20" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>434</v>
       </c>
@@ -12964,7 +12965,7 @@
       <c r="GY20" s="4"/>
       <c r="GZ20" s="4"/>
     </row>
-    <row r="21" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>434</v>
       </c>
@@ -13514,7 +13515,7 @@
       <c r="GY21" s="4"/>
       <c r="GZ21" s="4"/>
     </row>
-    <row r="22" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>432</v>
       </c>
@@ -14058,7 +14059,7 @@
       <c r="GY22" s="4"/>
       <c r="GZ22" s="4"/>
     </row>
-    <row r="23" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>432</v>
       </c>
@@ -14604,7 +14605,7 @@
       <c r="GY23" s="4"/>
       <c r="GZ23" s="4"/>
     </row>
-    <row r="24" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>432</v>
       </c>
@@ -15148,7 +15149,7 @@
       <c r="GY24" s="4"/>
       <c r="GZ24" s="4"/>
     </row>
-    <row r="25" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>432</v>
       </c>
@@ -15692,7 +15693,7 @@
       <c r="GY25" s="4"/>
       <c r="GZ25" s="4"/>
     </row>
-    <row r="26" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>432</v>
       </c>
@@ -17876,7 +17877,7 @@
       <c r="GY29" s="4"/>
       <c r="GZ29" s="4"/>
     </row>
-    <row r="30" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>432</v>
       </c>
@@ -18420,7 +18421,7 @@
       <c r="GY30" s="4"/>
       <c r="GZ30" s="4"/>
     </row>
-    <row r="31" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>432</v>
       </c>
@@ -18966,7 +18967,7 @@
       <c r="GY31" s="4"/>
       <c r="GZ31" s="4"/>
     </row>
-    <row r="32" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>432</v>
       </c>
@@ -19512,7 +19513,7 @@
       <c r="GY32" s="4"/>
       <c r="GZ32" s="4"/>
     </row>
-    <row r="33" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>432</v>
       </c>
@@ -20058,7 +20059,7 @@
       <c r="GY33" s="4"/>
       <c r="GZ33" s="4"/>
     </row>
-    <row r="34" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>432</v>
       </c>
@@ -20604,7 +20605,7 @@
       <c r="GY34" s="4"/>
       <c r="GZ34" s="4"/>
     </row>
-    <row r="35" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>432</v>
       </c>
@@ -21150,7 +21151,7 @@
       <c r="GY35" s="4"/>
       <c r="GZ35" s="4"/>
     </row>
-    <row r="36" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>432</v>
       </c>
@@ -21700,7 +21701,7 @@
       <c r="GY36" s="4"/>
       <c r="GZ36" s="4"/>
     </row>
-    <row r="37" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>432</v>
       </c>
@@ -22244,7 +22245,7 @@
       <c r="GY37" s="4"/>
       <c r="GZ37" s="4"/>
     </row>
-    <row r="38" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>432</v>
       </c>
@@ -22788,7 +22789,7 @@
       <c r="GY38" s="4"/>
       <c r="GZ38" s="4"/>
     </row>
-    <row r="39" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>432</v>
       </c>
@@ -23338,7 +23339,7 @@
       <c r="GY39" s="4"/>
       <c r="GZ39" s="4"/>
     </row>
-    <row r="40" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>432</v>
       </c>
@@ -23884,7 +23885,7 @@
       <c r="GY40" s="4"/>
       <c r="GZ40" s="4"/>
     </row>
-    <row r="41" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>432</v>
       </c>
@@ -24430,7 +24431,7 @@
       <c r="GY41" s="4"/>
       <c r="GZ41" s="4"/>
     </row>
-    <row r="42" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>432</v>
       </c>
@@ -24976,7 +24977,7 @@
       <c r="GY42" s="4"/>
       <c r="GZ42" s="4"/>
     </row>
-    <row r="43" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>432</v>
       </c>
@@ -25520,7 +25521,7 @@
       <c r="GY43" s="4"/>
       <c r="GZ43" s="4"/>
     </row>
-    <row r="44" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>432</v>
       </c>
@@ -26066,7 +26067,7 @@
       <c r="GY44" s="4"/>
       <c r="GZ44" s="4"/>
     </row>
-    <row r="45" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>438</v>
       </c>
@@ -26610,7 +26611,7 @@
       <c r="GY45" s="4"/>
       <c r="GZ45" s="4"/>
     </row>
-    <row r="46" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>438</v>
       </c>
@@ -27702,7 +27703,7 @@
       <c r="GY47" s="4"/>
       <c r="GZ47" s="4"/>
     </row>
-    <row r="48" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>438</v>
       </c>
@@ -28792,7 +28793,7 @@
       <c r="GY49" s="4"/>
       <c r="GZ49" s="4"/>
     </row>
-    <row r="50" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>438</v>
       </c>
@@ -29336,7 +29337,7 @@
       <c r="GY50" s="4"/>
       <c r="GZ50" s="4"/>
     </row>
-    <row r="51" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>437</v>
       </c>
@@ -29882,7 +29883,7 @@
       <c r="GY51" s="4"/>
       <c r="GZ51" s="4"/>
     </row>
-    <row r="52" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>437</v>
       </c>
@@ -30426,7 +30427,7 @@
       <c r="GY52" s="4"/>
       <c r="GZ52" s="4"/>
     </row>
-    <row r="53" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>437</v>
       </c>
@@ -30972,7 +30973,7 @@
       <c r="GY53" s="4"/>
       <c r="GZ53" s="4"/>
     </row>
-    <row r="54" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>437</v>
       </c>
@@ -31518,7 +31519,7 @@
       <c r="GY54" s="4"/>
       <c r="GZ54" s="4"/>
     </row>
-    <row r="55" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>437</v>
       </c>
@@ -32066,7 +32067,7 @@
       <c r="GY55" s="4"/>
       <c r="GZ55" s="4"/>
     </row>
-    <row r="56" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>437</v>
       </c>
@@ -32610,7 +32611,7 @@
       <c r="GY56" s="4"/>
       <c r="GZ56" s="4"/>
     </row>
-    <row r="57" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>437</v>
       </c>
@@ -33154,7 +33155,7 @@
       <c r="GY57" s="4"/>
       <c r="GZ57" s="4"/>
     </row>
-    <row r="58" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>437</v>
       </c>
@@ -33698,7 +33699,7 @@
       <c r="GY58" s="4"/>
       <c r="GZ58" s="4"/>
     </row>
-    <row r="59" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>437</v>
       </c>
@@ -34244,7 +34245,7 @@
       <c r="GY59" s="4"/>
       <c r="GZ59" s="4"/>
     </row>
-    <row r="60" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>437</v>
       </c>
@@ -35882,7 +35883,7 @@
       <c r="GY62" s="4"/>
       <c r="GZ62" s="4"/>
     </row>
-    <row r="63" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>437</v>
       </c>
@@ -36426,7 +36427,7 @@
       <c r="GY63" s="4"/>
       <c r="GZ63" s="4"/>
     </row>
-    <row r="64" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>436</v>
       </c>
@@ -36972,7 +36973,7 @@
       <c r="GY64" s="4"/>
       <c r="GZ64" s="4"/>
     </row>
-    <row r="65" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>436</v>
       </c>
@@ -37514,7 +37515,7 @@
       <c r="GY65" s="4"/>
       <c r="GZ65" s="4"/>
     </row>
-    <row r="66" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>436</v>
       </c>
@@ -38056,7 +38057,7 @@
       <c r="GY66" s="4"/>
       <c r="GZ66" s="4"/>
     </row>
-    <row r="67" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>436</v>
       </c>
@@ -38598,7 +38599,7 @@
       <c r="GY67" s="4"/>
       <c r="GZ67" s="4"/>
     </row>
-    <row r="68" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>436</v>
       </c>
@@ -39140,7 +39141,7 @@
       <c r="GY68" s="4"/>
       <c r="GZ68" s="4"/>
     </row>
-    <row r="69" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>436</v>
       </c>
@@ -39906,7 +39907,7 @@
       <c r="GY70" s="4"/>
       <c r="GZ70" s="4"/>
     </row>
-    <row r="71" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>431</v>
       </c>
@@ -40984,7 +40985,7 @@
       <c r="GY72" s="14"/>
       <c r="GZ72" s="14"/>
     </row>
-    <row r="73" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>431</v>
       </c>
@@ -42066,7 +42067,7 @@
       <c r="GY74" s="14"/>
       <c r="GZ74" s="14"/>
     </row>
-    <row r="75" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>431</v>
       </c>
@@ -42824,7 +42825,7 @@
       <c r="GY76" s="14"/>
       <c r="GZ76" s="14"/>
     </row>
-    <row r="77" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>435</v>
       </c>
@@ -43362,7 +43363,7 @@
       <c r="GY77" s="14"/>
       <c r="GZ77" s="14"/>
     </row>
-    <row r="78" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>435</v>
       </c>
@@ -43902,7 +43903,7 @@
       <c r="GY78" s="14"/>
       <c r="GZ78" s="14"/>
     </row>
-    <row r="79" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>435</v>
       </c>
@@ -44978,7 +44979,7 @@
       <c r="GY80" s="14"/>
       <c r="GZ80" s="14"/>
     </row>
-    <row r="81" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
         <v>435</v>
       </c>
@@ -45512,7 +45513,7 @@
       <c r="GY81" s="14"/>
       <c r="GZ81" s="14"/>
     </row>
-    <row r="82" spans="1:208" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
         <v>435</v>
       </c>
@@ -47327,7 +47328,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I109" xr:uid="{28AF94D7-EF12-497C-9205-C3D7A8C7E134}"/>
+  <autoFilter ref="I1:I109" xr:uid="{28AF94D7-EF12-497C-9205-C3D7A8C7E134}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SI"/>
+        <filter val="Si?"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -79149,17 +79157,48 @@
   </sheetData>
   <autoFilter ref="I1:I84" xr:uid="{BD663BCB-5D46-4289-9375-DF4511644946}"/>
   <mergeCells count="69">
-    <mergeCell ref="FN60:FO60"/>
-    <mergeCell ref="FB60:FC60"/>
-    <mergeCell ref="FF60:FG60"/>
-    <mergeCell ref="FH60:FI60"/>
-    <mergeCell ref="FJ60:FK60"/>
-    <mergeCell ref="FL60:FM60"/>
-    <mergeCell ref="ER60:ES60"/>
-    <mergeCell ref="ET60:EU60"/>
-    <mergeCell ref="EV60:EW60"/>
-    <mergeCell ref="EX60:EY60"/>
-    <mergeCell ref="EZ60:FA60"/>
+    <mergeCell ref="FO7:FP7"/>
+    <mergeCell ref="FO2:FP2"/>
+    <mergeCell ref="FO3:FP3"/>
+    <mergeCell ref="FO4:FP4"/>
+    <mergeCell ref="FO5:FP5"/>
+    <mergeCell ref="FO6:FP6"/>
+    <mergeCell ref="FO19:FP19"/>
+    <mergeCell ref="FO8:FP8"/>
+    <mergeCell ref="FO9:FP9"/>
+    <mergeCell ref="FO10:FP10"/>
+    <mergeCell ref="FO11:FP11"/>
+    <mergeCell ref="FO12:FP12"/>
+    <mergeCell ref="FO13:FP13"/>
+    <mergeCell ref="FO14:FP14"/>
+    <mergeCell ref="FO15:FP15"/>
+    <mergeCell ref="FO16:FP16"/>
+    <mergeCell ref="FO17:FP17"/>
+    <mergeCell ref="FO18:FP18"/>
+    <mergeCell ref="FO31:FP31"/>
+    <mergeCell ref="FO20:FP20"/>
+    <mergeCell ref="FO21:FP21"/>
+    <mergeCell ref="FO22:FP22"/>
+    <mergeCell ref="FO23:FP23"/>
+    <mergeCell ref="FO24:FP24"/>
+    <mergeCell ref="FO25:FP25"/>
+    <mergeCell ref="FO26:FP26"/>
+    <mergeCell ref="FO27:FP27"/>
+    <mergeCell ref="FO28:FP28"/>
+    <mergeCell ref="FO29:FP29"/>
+    <mergeCell ref="FO30:FP30"/>
+    <mergeCell ref="FO43:FP43"/>
+    <mergeCell ref="FO32:FP32"/>
+    <mergeCell ref="FO33:FP33"/>
+    <mergeCell ref="FO34:FP34"/>
+    <mergeCell ref="FO35:FP35"/>
+    <mergeCell ref="FO36:FP36"/>
+    <mergeCell ref="FO37:FP37"/>
+    <mergeCell ref="FO38:FP38"/>
+    <mergeCell ref="FO39:FP39"/>
+    <mergeCell ref="FO40:FP40"/>
+    <mergeCell ref="FO41:FP41"/>
+    <mergeCell ref="FO42:FP42"/>
     <mergeCell ref="FO44:FP44"/>
     <mergeCell ref="FO45:FP45"/>
     <mergeCell ref="FO46:FP46"/>
@@ -79176,48 +79215,17 @@
     <mergeCell ref="EL60:EM60"/>
     <mergeCell ref="EN60:EO60"/>
     <mergeCell ref="EP60:EQ60"/>
-    <mergeCell ref="FO43:FP43"/>
-    <mergeCell ref="FO32:FP32"/>
-    <mergeCell ref="FO33:FP33"/>
-    <mergeCell ref="FO34:FP34"/>
-    <mergeCell ref="FO35:FP35"/>
-    <mergeCell ref="FO36:FP36"/>
-    <mergeCell ref="FO37:FP37"/>
-    <mergeCell ref="FO38:FP38"/>
-    <mergeCell ref="FO39:FP39"/>
-    <mergeCell ref="FO40:FP40"/>
-    <mergeCell ref="FO41:FP41"/>
-    <mergeCell ref="FO42:FP42"/>
-    <mergeCell ref="FO31:FP31"/>
-    <mergeCell ref="FO20:FP20"/>
-    <mergeCell ref="FO21:FP21"/>
-    <mergeCell ref="FO22:FP22"/>
-    <mergeCell ref="FO23:FP23"/>
-    <mergeCell ref="FO24:FP24"/>
-    <mergeCell ref="FO25:FP25"/>
-    <mergeCell ref="FO26:FP26"/>
-    <mergeCell ref="FO27:FP27"/>
-    <mergeCell ref="FO28:FP28"/>
-    <mergeCell ref="FO29:FP29"/>
-    <mergeCell ref="FO30:FP30"/>
-    <mergeCell ref="FO19:FP19"/>
-    <mergeCell ref="FO8:FP8"/>
-    <mergeCell ref="FO9:FP9"/>
-    <mergeCell ref="FO10:FP10"/>
-    <mergeCell ref="FO11:FP11"/>
-    <mergeCell ref="FO12:FP12"/>
-    <mergeCell ref="FO13:FP13"/>
-    <mergeCell ref="FO14:FP14"/>
-    <mergeCell ref="FO15:FP15"/>
-    <mergeCell ref="FO16:FP16"/>
-    <mergeCell ref="FO17:FP17"/>
-    <mergeCell ref="FO18:FP18"/>
-    <mergeCell ref="FO7:FP7"/>
-    <mergeCell ref="FO2:FP2"/>
-    <mergeCell ref="FO3:FP3"/>
-    <mergeCell ref="FO4:FP4"/>
-    <mergeCell ref="FO5:FP5"/>
-    <mergeCell ref="FO6:FP6"/>
+    <mergeCell ref="ER60:ES60"/>
+    <mergeCell ref="ET60:EU60"/>
+    <mergeCell ref="EV60:EW60"/>
+    <mergeCell ref="EX60:EY60"/>
+    <mergeCell ref="EZ60:FA60"/>
+    <mergeCell ref="FN60:FO60"/>
+    <mergeCell ref="FB60:FC60"/>
+    <mergeCell ref="FF60:FG60"/>
+    <mergeCell ref="FH60:FI60"/>
+    <mergeCell ref="FJ60:FK60"/>
+    <mergeCell ref="FL60:FM60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Experimento_EEG.xlsx
+++ b/Experimento_EEG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/eloy_garciaperez_uclm_es/Documents/Tesis_EEG/proyecto_eeg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="8_{A2842039-3E20-44D2-847D-2DCBAB057A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11A0F6CA-D756-44A8-BCB6-CD9D626CCFCB}"/>
+  <xr:revisionPtr revIDLastSave="360" documentId="8_{A2842039-3E20-44D2-847D-2DCBAB057A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A6A1CF4-F2CE-44E2-8010-C906E9104D15}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE91E7FA-1BDB-47B2-9B27-7DE3ACDA43A0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="446">
   <si>
     <t>CENTRO_ESCOLAR</t>
   </si>
@@ -1252,81 +1252,6 @@
     <t>KAIZEN</t>
   </si>
   <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Jaime</t>
-  </si>
-  <si>
-    <t>Jesus</t>
-  </si>
-  <si>
-    <t>Mateo</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>Eneko</t>
-  </si>
-  <si>
-    <t>Jesus 2</t>
-  </si>
-  <si>
-    <t>Oliver</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Fernando</t>
-  </si>
-  <si>
-    <t>Adrian</t>
-  </si>
-  <si>
-    <t>Alejandra</t>
-  </si>
-  <si>
-    <t>Hugo</t>
-  </si>
-  <si>
-    <t>Kai</t>
-  </si>
-  <si>
-    <t>Aitana</t>
-  </si>
-  <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Bosco</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
-    <t>Agustin</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
     <t>SI?</t>
   </si>
   <si>
@@ -1379,6 +1304,81 @@
   </si>
   <si>
     <t>MS16102014</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>MATEO</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>ENEKO</t>
+  </si>
+  <si>
+    <t>JESUS 2</t>
+  </si>
+  <si>
+    <t>OLIVER</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>ALEJANDRA</t>
+  </si>
+  <si>
+    <t>HUGO</t>
+  </si>
+  <si>
+    <t>KAI</t>
+  </si>
+  <si>
+    <t>AITANA</t>
+  </si>
+  <si>
+    <t>AGUSTIN</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Bosco</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Samuel</t>
   </si>
 </sst>
 </file>
@@ -1632,6 +1632,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1951,13 +1955,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AF94D7-EF12-497C-9205-C3D7A8C7E134}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:GZ109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I109" sqref="I27:I109"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,9 +2598,9 @@
       <c r="GY1" s="4"/>
       <c r="GZ1" s="4"/>
     </row>
-    <row r="2" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>175</v>
@@ -3137,9 +3140,9 @@
       <c r="GY2" s="4"/>
       <c r="GZ2" s="4"/>
     </row>
-    <row r="3" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>180</v>
@@ -3679,9 +3682,9 @@
       <c r="GY3" s="4"/>
       <c r="GZ3" s="4"/>
     </row>
-    <row r="4" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>183</v>
@@ -4221,15 +4224,15 @@
       <c r="GY4" s="4"/>
       <c r="GZ4" s="4"/>
     </row>
-    <row r="5" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="D5" s="6">
         <v>41729</v>
@@ -4763,9 +4766,9 @@
       <c r="GY5" s="4"/>
       <c r="GZ5" s="4"/>
     </row>
-    <row r="6" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>188</v>
@@ -5309,9 +5312,9 @@
       <c r="GY6" s="4"/>
       <c r="GZ6" s="4"/>
     </row>
-    <row r="7" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>192</v>
@@ -5851,9 +5854,9 @@
       <c r="GY7" s="4"/>
       <c r="GZ7" s="4"/>
     </row>
-    <row r="8" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>194</v>
@@ -6393,9 +6396,9 @@
       <c r="GY8" s="4"/>
       <c r="GZ8" s="4"/>
     </row>
-    <row r="9" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>196</v>
@@ -6935,9 +6938,9 @@
       <c r="GY9" s="4"/>
       <c r="GZ9" s="4"/>
     </row>
-    <row r="10" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>198</v>
@@ -7477,9 +7480,9 @@
       <c r="GY10" s="4"/>
       <c r="GZ10" s="4"/>
     </row>
-    <row r="11" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>200</v>
@@ -8019,9 +8022,9 @@
       <c r="GY11" s="4"/>
       <c r="GZ11" s="4"/>
     </row>
-    <row r="12" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>203</v>
@@ -8569,9 +8572,9 @@
       <c r="GY12" s="4"/>
       <c r="GZ12" s="4"/>
     </row>
-    <row r="13" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>209</v>
@@ -9119,9 +9122,9 @@
       <c r="GY13" s="4"/>
       <c r="GZ13" s="4"/>
     </row>
-    <row r="14" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>213</v>
@@ -9669,9 +9672,9 @@
       <c r="GY14" s="4"/>
       <c r="GZ14" s="4"/>
     </row>
-    <row r="15" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>216</v>
@@ -10215,9 +10218,9 @@
       <c r="GY15" s="4"/>
       <c r="GZ15" s="4"/>
     </row>
-    <row r="16" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>218</v>
@@ -10765,9 +10768,9 @@
       <c r="GY16" s="4"/>
       <c r="GZ16" s="4"/>
     </row>
-    <row r="17" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>221</v>
@@ -11315,9 +11318,9 @@
       <c r="GY17" s="4"/>
       <c r="GZ17" s="4"/>
     </row>
-    <row r="18" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>225</v>
@@ -11865,9 +11868,9 @@
       <c r="GY18" s="4"/>
       <c r="GZ18" s="4"/>
     </row>
-    <row r="19" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>228</v>
@@ -12415,9 +12418,9 @@
       <c r="GY19" s="8"/>
       <c r="GZ19" s="8"/>
     </row>
-    <row r="20" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>230</v>
@@ -12965,9 +12968,9 @@
       <c r="GY20" s="4"/>
       <c r="GZ20" s="4"/>
     </row>
-    <row r="21" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>232</v>
@@ -13515,9 +13518,9 @@
       <c r="GY21" s="4"/>
       <c r="GZ21" s="4"/>
     </row>
-    <row r="22" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>235</v>
@@ -14059,9 +14062,9 @@
       <c r="GY22" s="4"/>
       <c r="GZ22" s="4"/>
     </row>
-    <row r="23" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>237</v>
@@ -14083,7 +14086,7 @@
         <v>182</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="J23" s="4">
         <v>1</v>
@@ -14605,9 +14608,9 @@
       <c r="GY23" s="4"/>
       <c r="GZ23" s="4"/>
     </row>
-    <row r="24" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>239</v>
@@ -15149,9 +15152,9 @@
       <c r="GY24" s="4"/>
       <c r="GZ24" s="4"/>
     </row>
-    <row r="25" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>241</v>
@@ -15693,9 +15696,9 @@
       <c r="GY25" s="4"/>
       <c r="GZ25" s="4"/>
     </row>
-    <row r="26" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>243</v>
@@ -16239,7 +16242,7 @@
     </row>
     <row r="27" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>245</v>
@@ -16785,7 +16788,7 @@
     </row>
     <row r="28" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>247</v>
@@ -17331,7 +17334,7 @@
     </row>
     <row r="29" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>249</v>
@@ -17877,9 +17880,9 @@
       <c r="GY29" s="4"/>
       <c r="GZ29" s="4"/>
     </row>
-    <row r="30" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>252</v>
@@ -18421,9 +18424,9 @@
       <c r="GY30" s="4"/>
       <c r="GZ30" s="4"/>
     </row>
-    <row r="31" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>255</v>
@@ -18445,7 +18448,7 @@
         <v>178</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
@@ -18967,9 +18970,9 @@
       <c r="GY31" s="4"/>
       <c r="GZ31" s="4"/>
     </row>
-    <row r="32" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>257</v>
@@ -19513,9 +19516,9 @@
       <c r="GY32" s="4"/>
       <c r="GZ32" s="4"/>
     </row>
-    <row r="33" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>260</v>
@@ -19537,7 +19540,7 @@
         <v>182</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="J33" s="4">
         <v>1</v>
@@ -20059,9 +20062,9 @@
       <c r="GY33" s="4"/>
       <c r="GZ33" s="4"/>
     </row>
-    <row r="34" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>262</v>
@@ -20083,7 +20086,7 @@
         <v>178</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="J34" s="4">
         <v>1</v>
@@ -20605,9 +20608,9 @@
       <c r="GY34" s="4"/>
       <c r="GZ34" s="4"/>
     </row>
-    <row r="35" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>264</v>
@@ -20629,7 +20632,7 @@
         <v>178</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="J35" s="4">
         <v>1</v>
@@ -21151,9 +21154,9 @@
       <c r="GY35" s="4"/>
       <c r="GZ35" s="4"/>
     </row>
-    <row r="36" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>266</v>
@@ -21175,7 +21178,7 @@
         <v>178</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="J36" s="4">
         <v>1</v>
@@ -21701,9 +21704,9 @@
       <c r="GY36" s="4"/>
       <c r="GZ36" s="4"/>
     </row>
-    <row r="37" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>270</v>
@@ -22245,15 +22248,15 @@
       <c r="GY37" s="4"/>
       <c r="GZ37" s="4"/>
     </row>
-    <row r="38" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="D38" s="6">
         <v>41991</v>
@@ -22789,9 +22792,9 @@
       <c r="GY38" s="4"/>
       <c r="GZ38" s="4"/>
     </row>
-    <row r="39" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>272</v>
@@ -22813,7 +22816,7 @@
         <v>182</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="J39" s="4">
         <v>5</v>
@@ -23339,9 +23342,9 @@
       <c r="GY39" s="4"/>
       <c r="GZ39" s="4"/>
     </row>
-    <row r="40" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>276</v>
@@ -23363,7 +23366,7 @@
         <v>178</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="J40" s="4">
         <v>1</v>
@@ -23885,15 +23888,15 @@
       <c r="GY40" s="4"/>
       <c r="GZ40" s="4"/>
     </row>
-    <row r="41" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="D41" s="6">
         <v>41928</v>
@@ -24431,9 +24434,9 @@
       <c r="GY41" s="4"/>
       <c r="GZ41" s="4"/>
     </row>
-    <row r="42" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>279</v>
@@ -24455,7 +24458,7 @@
         <v>182</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="J42" s="4">
         <v>1</v>
@@ -24977,9 +24980,9 @@
       <c r="GY42" s="4"/>
       <c r="GZ42" s="4"/>
     </row>
-    <row r="43" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>281</v>
@@ -25521,9 +25524,9 @@
       <c r="GY43" s="4"/>
       <c r="GZ43" s="4"/>
     </row>
-    <row r="44" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>283</v>
@@ -25545,7 +25548,7 @@
         <v>182</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="J44" s="4">
         <v>2</v>
@@ -26067,9 +26070,9 @@
       <c r="GY44" s="4"/>
       <c r="GZ44" s="4"/>
     </row>
-    <row r="45" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>286</v>
@@ -26611,9 +26614,9 @@
       <c r="GY45" s="4"/>
       <c r="GZ45" s="4"/>
     </row>
-    <row r="46" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>289</v>
@@ -27157,7 +27160,7 @@
     </row>
     <row r="47" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>291</v>
@@ -27703,9 +27706,9 @@
       <c r="GY47" s="4"/>
       <c r="GZ47" s="4"/>
     </row>
-    <row r="48" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>294</v>
@@ -28249,7 +28252,7 @@
     </row>
     <row r="49" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>296</v>
@@ -28793,9 +28796,9 @@
       <c r="GY49" s="4"/>
       <c r="GZ49" s="4"/>
     </row>
-    <row r="50" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>298</v>
@@ -29337,9 +29340,9 @@
       <c r="GY50" s="4"/>
       <c r="GZ50" s="4"/>
     </row>
-    <row r="51" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>301</v>
@@ -29361,7 +29364,7 @@
         <v>178</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="J51" s="4">
         <v>3</v>
@@ -29883,9 +29886,9 @@
       <c r="GY51" s="4"/>
       <c r="GZ51" s="4"/>
     </row>
-    <row r="52" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>303</v>
@@ -30427,9 +30430,9 @@
       <c r="GY52" s="4"/>
       <c r="GZ52" s="4"/>
     </row>
-    <row r="53" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>305</v>
@@ -30451,7 +30454,7 @@
         <v>178</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="J53" s="4">
         <v>2</v>
@@ -30973,9 +30976,9 @@
       <c r="GY53" s="4"/>
       <c r="GZ53" s="4"/>
     </row>
-    <row r="54" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>307</v>
@@ -31519,9 +31522,9 @@
       <c r="GY54" s="4"/>
       <c r="GZ54" s="4"/>
     </row>
-    <row r="55" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>310</v>
@@ -32067,9 +32070,9 @@
       <c r="GY55" s="4"/>
       <c r="GZ55" s="4"/>
     </row>
-    <row r="56" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>314</v>
@@ -32611,9 +32614,9 @@
       <c r="GY56" s="4"/>
       <c r="GZ56" s="4"/>
     </row>
-    <row r="57" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>316</v>
@@ -33155,9 +33158,9 @@
       <c r="GY57" s="4"/>
       <c r="GZ57" s="4"/>
     </row>
-    <row r="58" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>318</v>
@@ -33699,9 +33702,9 @@
       <c r="GY58" s="4"/>
       <c r="GZ58" s="4"/>
     </row>
-    <row r="59" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>320</v>
@@ -33723,7 +33726,7 @@
         <v>182</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="J59" s="4">
         <v>2</v>
@@ -34245,9 +34248,9 @@
       <c r="GY59" s="4"/>
       <c r="GZ59" s="4"/>
     </row>
-    <row r="60" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>322</v>
@@ -34791,7 +34794,7 @@
     </row>
     <row r="61" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>324</v>
@@ -35337,7 +35340,7 @@
     </row>
     <row r="62" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>326</v>
@@ -35883,9 +35886,9 @@
       <c r="GY62" s="4"/>
       <c r="GZ62" s="4"/>
     </row>
-    <row r="63" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>329</v>
@@ -36427,9 +36430,9 @@
       <c r="GY63" s="4"/>
       <c r="GZ63" s="4"/>
     </row>
-    <row r="64" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>332</v>
@@ -36441,7 +36444,7 @@
         <v>41408</v>
       </c>
       <c r="E64" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -36973,9 +36976,9 @@
       <c r="GY64" s="4"/>
       <c r="GZ64" s="4"/>
     </row>
-    <row r="65" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>335</v>
@@ -37515,9 +37518,9 @@
       <c r="GY65" s="4"/>
       <c r="GZ65" s="4"/>
     </row>
-    <row r="66" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>337</v>
@@ -38057,9 +38060,9 @@
       <c r="GY66" s="4"/>
       <c r="GZ66" s="4"/>
     </row>
-    <row r="67" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>339</v>
@@ -38599,9 +38602,9 @@
       <c r="GY67" s="4"/>
       <c r="GZ67" s="4"/>
     </row>
-    <row r="68" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>341</v>
@@ -39141,9 +39144,9 @@
       <c r="GY68" s="4"/>
       <c r="GZ68" s="4"/>
     </row>
-    <row r="69" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>343</v>
@@ -39685,7 +39688,7 @@
     </row>
     <row r="70" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>345</v>
@@ -39907,9 +39910,9 @@
       <c r="GY70" s="4"/>
       <c r="GZ70" s="4"/>
     </row>
-    <row r="71" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>348</v>
@@ -40447,7 +40450,7 @@
     </row>
     <row r="72" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>350</v>
@@ -40985,9 +40988,9 @@
       <c r="GY72" s="14"/>
       <c r="GZ72" s="14"/>
     </row>
-    <row r="73" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>352</v>
@@ -41525,7 +41528,7 @@
     </row>
     <row r="74" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>354</v>
@@ -42067,9 +42070,9 @@
       <c r="GY74" s="14"/>
       <c r="GZ74" s="14"/>
     </row>
-    <row r="75" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>357</v>
@@ -42603,7 +42606,7 @@
     </row>
     <row r="76" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>359</v>
@@ -42825,9 +42828,9 @@
       <c r="GY76" s="14"/>
       <c r="GZ76" s="14"/>
     </row>
-    <row r="77" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>362</v>
@@ -43363,9 +43366,9 @@
       <c r="GY77" s="14"/>
       <c r="GZ77" s="14"/>
     </row>
-    <row r="78" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>364</v>
@@ -43903,9 +43906,9 @@
       <c r="GY78" s="14"/>
       <c r="GZ78" s="14"/>
     </row>
-    <row r="79" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>367</v>
@@ -44441,7 +44444,7 @@
     </row>
     <row r="80" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>369</v>
@@ -44461,7 +44464,7 @@
         <v>178</v>
       </c>
       <c r="I80" s="35" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="J80" s="4">
         <v>3</v>
@@ -44979,9 +44982,9 @@
       <c r="GY80" s="14"/>
       <c r="GZ80" s="14"/>
     </row>
-    <row r="81" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>372</v>
@@ -45513,9 +45516,9 @@
       <c r="GY81" s="14"/>
       <c r="GZ81" s="14"/>
     </row>
-    <row r="82" spans="1:208" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>374</v>
@@ -46057,7 +46060,7 @@
     </row>
     <row r="83" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>377</v>
@@ -46605,7 +46608,7 @@
     </row>
     <row r="84" spans="1:208" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>381</v>
@@ -46831,11 +46834,12 @@
       <c r="A85" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>403</v>
+      <c r="B85" s="4" t="str">
+        <f>C85</f>
+        <v>LUCAS</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="E85" s="4">
         <v>6</v>
@@ -46851,14 +46855,15 @@
       <c r="A86" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>404</v>
+      <c r="B86" s="4" t="str">
+        <f t="shared" ref="B86:B109" si="0">C86</f>
+        <v>OSCAR</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>178</v>
@@ -46871,11 +46876,12 @@
       <c r="A87" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>405</v>
+      <c r="B87" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>JAIME</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="E87" s="4">
         <v>3</v>
@@ -46891,14 +46897,15 @@
       <c r="A88" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>406</v>
+      <c r="B88" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>JESUS</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>178</v>
@@ -46911,11 +46918,12 @@
       <c r="A89" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>407</v>
+      <c r="B89" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MATEO</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="E89" s="4">
         <v>5</v>
@@ -46931,11 +46939,12 @@
       <c r="A90" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>408</v>
+      <c r="B90" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MARTIN</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="E90" s="4">
         <v>3</v>
@@ -46951,11 +46960,12 @@
       <c r="A91" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>409</v>
+      <c r="B91" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>VICTOR</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="E91" s="4">
         <v>5</v>
@@ -46971,11 +46981,12 @@
       <c r="A92" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>410</v>
+      <c r="B92" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ALEJANDRO</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="E92" s="4">
         <v>4</v>
@@ -46991,11 +47002,12 @@
       <c r="A93" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>411</v>
+      <c r="B93" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ENEKO</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="E93" s="4">
         <v>6</v>
@@ -47011,11 +47023,12 @@
       <c r="A94" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>412</v>
+      <c r="B94" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>JESUS 2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="E94" s="4">
         <v>5</v>
@@ -47031,14 +47044,15 @@
       <c r="A95" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>413</v>
+      <c r="B95" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>OLIVER</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>178</v>
@@ -47051,11 +47065,12 @@
       <c r="A96" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>414</v>
+      <c r="B96" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>GABRIEL</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="E96" s="4">
         <v>4</v>
@@ -47071,11 +47086,12 @@
       <c r="A97" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>415</v>
+      <c r="B97" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>FERNANDO</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="E97" s="4">
         <v>6</v>
@@ -47091,11 +47107,12 @@
       <c r="A98" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>416</v>
+      <c r="B98" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ADRIAN</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="E98" s="4">
         <v>4</v>
@@ -47111,11 +47128,12 @@
       <c r="A99" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>417</v>
+      <c r="B99" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ALEJANDRA</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="E99" s="4">
         <v>5</v>
@@ -47131,14 +47149,15 @@
       <c r="A100" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>418</v>
+      <c r="B100" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>HUGO</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>178</v>
@@ -47151,11 +47170,12 @@
       <c r="A101" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>419</v>
+      <c r="B101" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>KAI</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="E101" s="4">
         <v>5</v>
@@ -47171,14 +47191,15 @@
       <c r="A102" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>420</v>
+      <c r="B102" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AITANA</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>182</v>
@@ -47191,11 +47212,12 @@
       <c r="A103" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>421</v>
+      <c r="B103" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pablo</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="E103" s="4">
         <v>5</v>
@@ -47211,11 +47233,12 @@
       <c r="A104" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>422</v>
+      <c r="B104" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Bosco</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="E104" s="4">
         <v>5</v>
@@ -47231,11 +47254,12 @@
       <c r="A105" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>423</v>
+      <c r="B105" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Carlos</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="E105" s="4">
         <v>5</v>
@@ -47251,11 +47275,12 @@
       <c r="A106" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>424</v>
+      <c r="B106" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Samuel</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="E106" s="4">
         <v>6</v>
@@ -47271,14 +47296,15 @@
       <c r="A107" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>425</v>
+      <c r="B107" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aaron</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>178</v>
@@ -47291,11 +47317,12 @@
       <c r="A108" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>426</v>
+      <c r="B108" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AGUSTIN</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="E108" s="4">
         <v>4</v>
@@ -47311,14 +47338,15 @@
       <c r="A109" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>427</v>
+      <c r="B109" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>LUIS</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>178</v>
@@ -47328,15 +47356,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I109" xr:uid="{28AF94D7-EF12-497C-9205-C3D7A8C7E134}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="SI"/>
-        <filter val="Si?"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="I1:I109" xr:uid="{28AF94D7-EF12-497C-9205-C3D7A8C7E134}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -58906,7 +58928,7 @@
         <v>178</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
@@ -59994,7 +60016,7 @@
         <v>178</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
@@ -63803,7 +63825,7 @@
         <v>178</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="J31" s="4">
         <v>3</v>
@@ -64348,7 +64370,7 @@
         <v>178</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="J32" s="4">
         <v>2</v>
@@ -67067,7 +67089,7 @@
         <v>182</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="J37" s="4">
         <v>2</v>
@@ -79157,48 +79179,17 @@
   </sheetData>
   <autoFilter ref="I1:I84" xr:uid="{BD663BCB-5D46-4289-9375-DF4511644946}"/>
   <mergeCells count="69">
-    <mergeCell ref="FO7:FP7"/>
-    <mergeCell ref="FO2:FP2"/>
-    <mergeCell ref="FO3:FP3"/>
-    <mergeCell ref="FO4:FP4"/>
-    <mergeCell ref="FO5:FP5"/>
-    <mergeCell ref="FO6:FP6"/>
-    <mergeCell ref="FO19:FP19"/>
-    <mergeCell ref="FO8:FP8"/>
-    <mergeCell ref="FO9:FP9"/>
-    <mergeCell ref="FO10:FP10"/>
-    <mergeCell ref="FO11:FP11"/>
-    <mergeCell ref="FO12:FP12"/>
-    <mergeCell ref="FO13:FP13"/>
-    <mergeCell ref="FO14:FP14"/>
-    <mergeCell ref="FO15:FP15"/>
-    <mergeCell ref="FO16:FP16"/>
-    <mergeCell ref="FO17:FP17"/>
-    <mergeCell ref="FO18:FP18"/>
-    <mergeCell ref="FO31:FP31"/>
-    <mergeCell ref="FO20:FP20"/>
-    <mergeCell ref="FO21:FP21"/>
-    <mergeCell ref="FO22:FP22"/>
-    <mergeCell ref="FO23:FP23"/>
-    <mergeCell ref="FO24:FP24"/>
-    <mergeCell ref="FO25:FP25"/>
-    <mergeCell ref="FO26:FP26"/>
-    <mergeCell ref="FO27:FP27"/>
-    <mergeCell ref="FO28:FP28"/>
-    <mergeCell ref="FO29:FP29"/>
-    <mergeCell ref="FO30:FP30"/>
-    <mergeCell ref="FO43:FP43"/>
-    <mergeCell ref="FO32:FP32"/>
-    <mergeCell ref="FO33:FP33"/>
-    <mergeCell ref="FO34:FP34"/>
-    <mergeCell ref="FO35:FP35"/>
-    <mergeCell ref="FO36:FP36"/>
-    <mergeCell ref="FO37:FP37"/>
-    <mergeCell ref="FO38:FP38"/>
-    <mergeCell ref="FO39:FP39"/>
-    <mergeCell ref="FO40:FP40"/>
-    <mergeCell ref="FO41:FP41"/>
-    <mergeCell ref="FO42:FP42"/>
+    <mergeCell ref="FN60:FO60"/>
+    <mergeCell ref="FB60:FC60"/>
+    <mergeCell ref="FF60:FG60"/>
+    <mergeCell ref="FH60:FI60"/>
+    <mergeCell ref="FJ60:FK60"/>
+    <mergeCell ref="FL60:FM60"/>
+    <mergeCell ref="ER60:ES60"/>
+    <mergeCell ref="ET60:EU60"/>
+    <mergeCell ref="EV60:EW60"/>
+    <mergeCell ref="EX60:EY60"/>
+    <mergeCell ref="EZ60:FA60"/>
     <mergeCell ref="FO44:FP44"/>
     <mergeCell ref="FO45:FP45"/>
     <mergeCell ref="FO46:FP46"/>
@@ -79215,17 +79206,48 @@
     <mergeCell ref="EL60:EM60"/>
     <mergeCell ref="EN60:EO60"/>
     <mergeCell ref="EP60:EQ60"/>
-    <mergeCell ref="ER60:ES60"/>
-    <mergeCell ref="ET60:EU60"/>
-    <mergeCell ref="EV60:EW60"/>
-    <mergeCell ref="EX60:EY60"/>
-    <mergeCell ref="EZ60:FA60"/>
-    <mergeCell ref="FN60:FO60"/>
-    <mergeCell ref="FB60:FC60"/>
-    <mergeCell ref="FF60:FG60"/>
-    <mergeCell ref="FH60:FI60"/>
-    <mergeCell ref="FJ60:FK60"/>
-    <mergeCell ref="FL60:FM60"/>
+    <mergeCell ref="FO43:FP43"/>
+    <mergeCell ref="FO32:FP32"/>
+    <mergeCell ref="FO33:FP33"/>
+    <mergeCell ref="FO34:FP34"/>
+    <mergeCell ref="FO35:FP35"/>
+    <mergeCell ref="FO36:FP36"/>
+    <mergeCell ref="FO37:FP37"/>
+    <mergeCell ref="FO38:FP38"/>
+    <mergeCell ref="FO39:FP39"/>
+    <mergeCell ref="FO40:FP40"/>
+    <mergeCell ref="FO41:FP41"/>
+    <mergeCell ref="FO42:FP42"/>
+    <mergeCell ref="FO31:FP31"/>
+    <mergeCell ref="FO20:FP20"/>
+    <mergeCell ref="FO21:FP21"/>
+    <mergeCell ref="FO22:FP22"/>
+    <mergeCell ref="FO23:FP23"/>
+    <mergeCell ref="FO24:FP24"/>
+    <mergeCell ref="FO25:FP25"/>
+    <mergeCell ref="FO26:FP26"/>
+    <mergeCell ref="FO27:FP27"/>
+    <mergeCell ref="FO28:FP28"/>
+    <mergeCell ref="FO29:FP29"/>
+    <mergeCell ref="FO30:FP30"/>
+    <mergeCell ref="FO19:FP19"/>
+    <mergeCell ref="FO8:FP8"/>
+    <mergeCell ref="FO9:FP9"/>
+    <mergeCell ref="FO10:FP10"/>
+    <mergeCell ref="FO11:FP11"/>
+    <mergeCell ref="FO12:FP12"/>
+    <mergeCell ref="FO13:FP13"/>
+    <mergeCell ref="FO14:FP14"/>
+    <mergeCell ref="FO15:FP15"/>
+    <mergeCell ref="FO16:FP16"/>
+    <mergeCell ref="FO17:FP17"/>
+    <mergeCell ref="FO18:FP18"/>
+    <mergeCell ref="FO7:FP7"/>
+    <mergeCell ref="FO2:FP2"/>
+    <mergeCell ref="FO3:FP3"/>
+    <mergeCell ref="FO4:FP4"/>
+    <mergeCell ref="FO5:FP5"/>
+    <mergeCell ref="FO6:FP6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
